--- a/public/Reporte_de_Salidas.xlsx
+++ b/public/Reporte_de_Salidas.xlsx
@@ -98,7 +98,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -186,6 +186,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2047875" cy="381000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="nombre_master_pizza" descr="nombre_master_pizza"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,6 +527,9 @@
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1"/>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -768,6 +806,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/Reporte_de_Salidas.xlsx
+++ b/public/Reporte_de_Salidas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>RESUMEN DE SALIDAS AL ALMACÉN</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>HARINA (1 Quintal)</t>
+  </si>
+  <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
+    <t>COCA-COLA (BOTELLAS DE 2 LITROS)</t>
+  </si>
+  <si>
+    <t>2023/11/09</t>
+  </si>
+  <si>
+    <t>SAL (1 Quintal)</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -513,10 +525,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:D21"/>
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,21 +791,63 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
-        <f>SUM(D5:D21)</f>
-        <v>1276.621</v>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43.199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>116.667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6">
+        <f>SUM(D5:D24)</f>
+        <v>1479.987</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
